--- a/temp_material_list.xlsx
+++ b/temp_material_list.xlsx
@@ -1789,7 +1789,7 @@
       </c>
       <c r="F8" s="32" t="inlineStr">
         <is>
-          <t>Plano 231 ScreenX Power SC 245479461</t>
+          <t>1101 Polaris Stage Speakers SC 252281010</t>
         </is>
       </c>
       <c r="G8" s="69" t="n"/>
@@ -1848,7 +1848,7 @@
     <row r="11" ht="27.95" customHeight="1" s="59">
       <c r="A11" s="20" t="n"/>
       <c r="B11" s="21" t="n">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="C11" s="34" t="inlineStr">
         <is>
@@ -1866,11 +1866,11 @@
     <row r="12" ht="27.95" customHeight="1" s="59">
       <c r="A12" s="20" t="n"/>
       <c r="B12" s="21" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C12" s="34" t="inlineStr">
         <is>
-          <t>Two Gang Mud Ring</t>
+          <t>4-Square Bracket Box</t>
         </is>
       </c>
       <c r="D12" s="70" t="n"/>
@@ -1884,11 +1884,11 @@
     <row r="13" ht="27.95" customHeight="1" s="59">
       <c r="A13" s="20" t="n"/>
       <c r="B13" s="21" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C13" s="34" t="inlineStr">
         <is>
-          <t>4-Square Bracket Box</t>
+          <t>12/2 LV MC</t>
         </is>
       </c>
       <c r="D13" s="70" t="n"/>
@@ -1902,11 +1902,11 @@
     <row r="14" ht="27.95" customHeight="1" s="59">
       <c r="A14" s="20" t="n"/>
       <c r="B14" s="21" t="n">
-        <v>224</v>
+        <v>3</v>
       </c>
       <c r="C14" s="34" t="inlineStr">
         <is>
-          <t>Deep 4-Square Bracket Box</t>
+          <t>Double Barrel MC Connector</t>
         </is>
       </c>
       <c r="D14" s="70" t="n"/>
@@ -1920,11 +1920,11 @@
     <row r="15" ht="27.95" customHeight="1" s="59">
       <c r="A15" s="20" t="n"/>
       <c r="B15" s="21" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C15" s="34" t="inlineStr">
         <is>
-          <t>4-Square Box</t>
+          <t>Ground Stinger</t>
         </is>
       </c>
       <c r="D15" s="70" t="n"/>
@@ -1938,11 +1938,11 @@
     <row r="16" ht="27.95" customHeight="1" s="59">
       <c r="A16" s="20" t="n"/>
       <c r="B16" s="21" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C16" s="34" t="inlineStr">
         <is>
-          <t>Deep 4-Square Box</t>
+          <t>Tek Screws</t>
         </is>
       </c>
       <c r="D16" s="70" t="n"/>
@@ -1956,11 +1956,11 @@
     <row r="17" ht="27.95" customHeight="1" s="59">
       <c r="A17" s="20" t="n"/>
       <c r="B17" s="21" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C17" s="34" t="inlineStr">
         <is>
-          <t>4-Square Cover</t>
+          <t>Mac-2 Straps</t>
         </is>
       </c>
       <c r="D17" s="70" t="n"/>
@@ -1974,11 +1974,11 @@
     <row r="18" ht="27.95" customHeight="1" s="59">
       <c r="A18" s="20" t="n"/>
       <c r="B18" s="21" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C18" s="34" t="inlineStr">
         <is>
-          <t>Cut-In Box</t>
+          <t>Red Heads</t>
         </is>
       </c>
       <c r="D18" s="70" t="n"/>
@@ -1992,11 +1992,11 @@
     <row r="19" ht="27.95" customHeight="1" s="59">
       <c r="A19" s="20" t="n"/>
       <c r="B19" s="21" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C19" s="34" t="inlineStr">
         <is>
-          <t>Drywall Clamps</t>
+          <t>Red/Yellow Wire Nuts</t>
         </is>
       </c>
       <c r="D19" s="70" t="n"/>
@@ -2010,11 +2010,11 @@
     <row r="20" ht="27.95" customHeight="1" s="59">
       <c r="A20" s="20" t="n"/>
       <c r="B20" s="21" t="n">
-        <v>224</v>
+        <v>6</v>
       </c>
       <c r="C20" s="34" t="inlineStr">
         <is>
-          <t>NVent Caddy Mounting Slider Bracket</t>
+          <t>KX Straps</t>
         </is>
       </c>
       <c r="D20" s="70" t="n"/>
@@ -2028,11 +2028,11 @@
     <row r="21" ht="27.95" customHeight="1" s="59">
       <c r="A21" s="20" t="n"/>
       <c r="B21" s="21" t="n">
-        <v>3600</v>
+        <v>3</v>
       </c>
       <c r="C21" s="34" t="inlineStr">
         <is>
-          <t>12/2 LV MC</t>
+          <t>Single Gang Mud Ring</t>
         </is>
       </c>
       <c r="D21" s="70" t="n"/>
@@ -2046,11 +2046,11 @@
     <row r="22" ht="27.95" customHeight="1" s="59">
       <c r="A22" s="20" t="n"/>
       <c r="B22" s="21" t="n">
-        <v>1440</v>
+        <v>3</v>
       </c>
       <c r="C22" s="34" t="inlineStr">
         <is>
-          <t>12/3 LV MC</t>
+          <t>4-Square Bracket Box</t>
         </is>
       </c>
       <c r="D22" s="70" t="n"/>
@@ -2064,11 +2064,11 @@
     <row r="23" ht="27.95" customHeight="1" s="59">
       <c r="A23" s="20" t="n"/>
       <c r="B23" s="21" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C23" s="34" t="inlineStr">
         <is>
-          <t>12/2 HV MC</t>
+          <t>12/2 LV MC</t>
         </is>
       </c>
       <c r="D23" s="70" t="n"/>
@@ -2082,11 +2082,11 @@
     <row r="24" ht="27.95" customHeight="1" s="59">
       <c r="A24" s="20" t="n"/>
       <c r="B24" s="21" t="n">
-        <v>240</v>
+        <v>3</v>
       </c>
       <c r="C24" s="34" t="inlineStr">
         <is>
-          <t>12/3 HV MC</t>
+          <t>Double Barrel MC Connector</t>
         </is>
       </c>
       <c r="D24" s="70" t="n"/>
@@ -2100,11 +2100,11 @@
     <row r="25" ht="27.95" customHeight="1" s="59">
       <c r="A25" s="20" t="n"/>
       <c r="B25" s="21" t="n">
-        <v>240</v>
+        <v>3</v>
       </c>
       <c r="C25" s="34" t="inlineStr">
         <is>
-          <t>10/2 HV MC</t>
+          <t>Ground Stinger</t>
         </is>
       </c>
       <c r="D25" s="70" t="n"/>
@@ -2118,11 +2118,11 @@
     <row r="26" ht="27.95" customHeight="1" s="59">
       <c r="A26" s="20" t="n"/>
       <c r="B26" s="21" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="C26" s="34" t="inlineStr">
         <is>
-          <t>18/2 LV Dimmer Cable</t>
+          <t>Tek Screws</t>
         </is>
       </c>
       <c r="D26" s="70" t="n"/>
@@ -2136,11 +2136,11 @@
     <row r="27" ht="27.95" customHeight="1" s="59">
       <c r="A27" s="20" t="n"/>
       <c r="B27" s="21" t="n">
-        <v>280</v>
+        <v>12</v>
       </c>
       <c r="C27" s="34" t="inlineStr">
         <is>
-          <t>Single Barrel MC Connector</t>
+          <t>Mac-2 Straps</t>
         </is>
       </c>
       <c r="D27" s="70" t="n"/>
@@ -2154,11 +2154,11 @@
     <row r="28" ht="27.95" customHeight="1" s="59">
       <c r="A28" s="20" t="n"/>
       <c r="B28" s="21" t="n">
-        <v>224</v>
+        <v>6</v>
       </c>
       <c r="C28" s="34" t="inlineStr">
         <is>
-          <t>Double Barrel MC Connector</t>
+          <t>Red Heads</t>
         </is>
       </c>
       <c r="D28" s="70" t="n"/>
@@ -2172,11 +2172,11 @@
     <row r="29" ht="27.95" customHeight="1" s="59">
       <c r="A29" s="20" t="n"/>
       <c r="B29" s="21" t="n">
-        <v>312</v>
+        <v>3</v>
       </c>
       <c r="C29" s="34" t="inlineStr">
         <is>
-          <t>Ground Stinger</t>
+          <t>Red/Yellow Wire Nuts</t>
         </is>
       </c>
       <c r="D29" s="70" t="n"/>
@@ -2190,11 +2190,11 @@
     <row r="30" ht="27.95" customHeight="1" s="59">
       <c r="A30" s="20" t="n"/>
       <c r="B30" s="21" t="n">
-        <v>1568</v>
+        <v>6</v>
       </c>
       <c r="C30" s="34" t="inlineStr">
         <is>
-          <t>Tek Screws</t>
+          <t>KX Straps</t>
         </is>
       </c>
       <c r="D30" s="70" t="n"/>
@@ -2207,14 +2207,8 @@
     </row>
     <row r="31" ht="27.95" customHeight="1" s="59">
       <c r="A31" s="20" t="n"/>
-      <c r="B31" s="21" t="n">
-        <v>40</v>
-      </c>
-      <c r="C31" s="34" t="inlineStr">
-        <is>
-          <t>1/2" Panhead Selftapper</t>
-        </is>
-      </c>
+      <c r="B31" s="21" t="n"/>
+      <c r="C31" s="34" t="n"/>
       <c r="D31" s="70" t="n"/>
       <c r="E31" s="71" t="n"/>
       <c r="F31" s="22" t="n"/>
@@ -2225,14 +2219,8 @@
     </row>
     <row r="32" ht="27.95" customHeight="1" s="59">
       <c r="A32" s="20" t="n"/>
-      <c r="B32" s="21" t="n">
-        <v>608</v>
-      </c>
-      <c r="C32" s="34" t="inlineStr">
-        <is>
-          <t>Mac-2 Straps</t>
-        </is>
-      </c>
+      <c r="B32" s="21" t="n"/>
+      <c r="C32" s="34" t="n"/>
       <c r="D32" s="70" t="n"/>
       <c r="E32" s="71" t="n"/>
       <c r="F32" s="22" t="n"/>
@@ -2243,14 +2231,8 @@
     </row>
     <row r="33" ht="27.95" customHeight="1" s="59">
       <c r="A33" s="20" t="n"/>
-      <c r="B33" s="21" t="n">
-        <v>640</v>
-      </c>
-      <c r="C33" s="37" t="inlineStr">
-        <is>
-          <t>Red Heads</t>
-        </is>
-      </c>
+      <c r="B33" s="21" t="n"/>
+      <c r="C33" s="37" t="n"/>
       <c r="D33" s="70" t="n"/>
       <c r="E33" s="71" t="n"/>
       <c r="F33" s="22" t="n"/>
@@ -2261,14 +2243,8 @@
     </row>
     <row r="34" ht="27.95" customHeight="1" s="59">
       <c r="A34" s="20" t="n"/>
-      <c r="B34" s="25" t="n">
-        <v>984</v>
-      </c>
-      <c r="C34" s="37" t="inlineStr">
-        <is>
-          <t>Red/Yellow Wire Nuts</t>
-        </is>
-      </c>
+      <c r="B34" s="25" t="n"/>
+      <c r="C34" s="37" t="n"/>
       <c r="D34" s="70" t="n"/>
       <c r="E34" s="71" t="n"/>
       <c r="F34" s="22" t="n"/>
@@ -2279,14 +2255,8 @@
     </row>
     <row r="35" ht="27.95" customHeight="1" s="59">
       <c r="A35" s="20" t="n"/>
-      <c r="B35" s="25" t="n">
-        <v>16</v>
-      </c>
-      <c r="C35" s="37" t="inlineStr">
-        <is>
-          <t>Blue/Orange Wire Nuts</t>
-        </is>
-      </c>
+      <c r="B35" s="25" t="n"/>
+      <c r="C35" s="37" t="n"/>
       <c r="D35" s="70" t="n"/>
       <c r="E35" s="71" t="n"/>
       <c r="F35" s="22" t="n"/>
@@ -2297,14 +2267,8 @@
     </row>
     <row r="36" ht="27.95" customHeight="1" s="59">
       <c r="A36" s="20" t="n"/>
-      <c r="B36" s="25" t="n">
-        <v>32</v>
-      </c>
-      <c r="C36" s="37" t="inlineStr">
-        <is>
-          <t>Big Blue Wire Nuts</t>
-        </is>
-      </c>
+      <c r="B36" s="25" t="n"/>
+      <c r="C36" s="37" t="n"/>
       <c r="D36" s="70" t="n"/>
       <c r="E36" s="71" t="n"/>
       <c r="F36" s="22" t="n"/>
@@ -2315,14 +2279,8 @@
     </row>
     <row r="37" ht="27.95" customHeight="1" s="59">
       <c r="A37" s="20" t="n"/>
-      <c r="B37" s="25" t="n">
-        <v>480</v>
-      </c>
-      <c r="C37" s="34" t="inlineStr">
-        <is>
-          <t>Jet Line</t>
-        </is>
-      </c>
+      <c r="B37" s="25" t="n"/>
+      <c r="C37" s="34" t="n"/>
       <c r="D37" s="70" t="n"/>
       <c r="E37" s="71" t="n"/>
       <c r="F37" s="25" t="n"/>
@@ -2333,14 +2291,8 @@
     </row>
     <row r="38" ht="27.95" customHeight="1" s="59">
       <c r="A38" s="20" t="n"/>
-      <c r="B38" s="25" t="n">
-        <v>16</v>
-      </c>
-      <c r="C38" s="34" t="inlineStr">
-        <is>
-          <t>3/4” Snap-In Bushings</t>
-        </is>
-      </c>
+      <c r="B38" s="25" t="n"/>
+      <c r="C38" s="34" t="n"/>
       <c r="D38" s="70" t="n"/>
       <c r="E38" s="71" t="n"/>
       <c r="F38" s="25" t="n"/>
@@ -2351,14 +2303,8 @@
     </row>
     <row r="39" ht="27.95" customHeight="1" s="59">
       <c r="A39" s="20" t="n"/>
-      <c r="B39" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="C39" s="34" t="inlineStr">
-        <is>
-          <t>1" Snap-In Bushings</t>
-        </is>
-      </c>
+      <c r="B39" s="25" t="n"/>
+      <c r="C39" s="34" t="n"/>
       <c r="D39" s="70" t="n"/>
       <c r="E39" s="71" t="n"/>
       <c r="F39" s="25" t="n"/>
@@ -2369,14 +2315,8 @@
     </row>
     <row r="40" ht="27.95" customHeight="1" s="59" thickBot="1">
       <c r="A40" s="26" t="n"/>
-      <c r="B40" s="51" t="n">
-        <v>8</v>
-      </c>
-      <c r="C40" s="52" t="inlineStr">
-        <is>
-          <t>2" EMT Coupling **May need adjusting per floor device specs**</t>
-        </is>
-      </c>
+      <c r="B40" s="51" t="n"/>
+      <c r="C40" s="52" t="n"/>
       <c r="D40" s="72" t="n"/>
       <c r="E40" s="72" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -2386,246 +2326,102 @@
       <c r="J40" s="29" t="n"/>
     </row>
     <row r="41" ht="27.95" customHeight="1" s="59">
-      <c r="B41" s="57" t="n">
-        <v>16</v>
-      </c>
-      <c r="C41" s="53" t="inlineStr">
-        <is>
-          <t>2" EMT to Flex Change Over **May need adjusting per floor device specs**</t>
-        </is>
-      </c>
+      <c r="B41" s="57" t="n"/>
+      <c r="C41" s="53" t="n"/>
       <c r="D41" s="61" t="n"/>
       <c r="E41" s="61" t="n"/>
     </row>
     <row r="42" ht="27.95" customHeight="1" s="59">
-      <c r="B42" s="57" t="n">
-        <v>8</v>
-      </c>
-      <c r="C42" s="73" t="inlineStr">
-        <is>
-          <t>2" 90° Elbow **May need adjusting per floor device specs**</t>
-        </is>
-      </c>
+      <c r="B42" s="57" t="n"/>
+      <c r="C42" s="73" t="n"/>
     </row>
     <row r="43" ht="27.95" customHeight="1" s="59">
-      <c r="B43" s="57" t="n">
-        <v>8</v>
-      </c>
-      <c r="C43" s="73" t="inlineStr">
-        <is>
-          <t>10ft Pieces of 2" Flex **May need adjusting per floor device specs**</t>
-        </is>
-      </c>
+      <c r="B43" s="57" t="n"/>
+      <c r="C43" s="73" t="n"/>
     </row>
     <row r="44" ht="27.95" customHeight="1" s="59">
-      <c r="B44" s="57" t="n">
-        <v>8</v>
-      </c>
-      <c r="C44" s="73" t="inlineStr">
-        <is>
-          <t>2" Insulating Push On Conduit Bushing **May need adjusting per floor device specs**</t>
-        </is>
-      </c>
+      <c r="B44" s="57" t="n"/>
+      <c r="C44" s="73" t="n"/>
     </row>
     <row r="45" ht="27.95" customHeight="1" s="59">
-      <c r="B45" s="57" t="n">
-        <v>40</v>
-      </c>
-      <c r="C45" s="73" t="inlineStr">
-        <is>
-          <t>2" Min Strap **May need adjusting per floor device specs**</t>
-        </is>
-      </c>
+      <c r="B45" s="57" t="n"/>
+      <c r="C45" s="73" t="n"/>
     </row>
     <row r="46" ht="27.95" customHeight="1" s="59">
-      <c r="B46" s="57" t="n">
-        <v>16</v>
-      </c>
-      <c r="C46" s="73" t="inlineStr">
-        <is>
-          <t>Tube of Fire Cock **May need adjusting per floor device specs**</t>
-        </is>
-      </c>
+      <c r="B46" s="57" t="n"/>
+      <c r="C46" s="73" t="n"/>
     </row>
     <row r="47" ht="27.95" customHeight="1" s="59">
-      <c r="B47" s="57" t="n">
-        <v>48</v>
-      </c>
-      <c r="C47" s="73" t="inlineStr">
-        <is>
-          <t>1/4” Toggle Bolts</t>
-        </is>
-      </c>
+      <c r="B47" s="57" t="n"/>
+      <c r="C47" s="73" t="n"/>
     </row>
     <row r="48" ht="27.95" customHeight="1" s="59">
-      <c r="B48" s="57" t="n">
-        <v>80</v>
-      </c>
-      <c r="C48" s="73" t="inlineStr">
-        <is>
-          <t>1/2" EMT</t>
-        </is>
-      </c>
+      <c r="B48" s="57" t="n"/>
+      <c r="C48" s="73" t="n"/>
     </row>
     <row r="49" ht="27.95" customHeight="1" s="59">
-      <c r="B49" s="57" t="n">
-        <v>16</v>
-      </c>
-      <c r="C49" s="73" t="inlineStr">
-        <is>
-          <t>1/2" EMT Connectors</t>
-        </is>
-      </c>
+      <c r="B49" s="57" t="n"/>
+      <c r="C49" s="73" t="n"/>
     </row>
     <row r="50" ht="27.95" customHeight="1" s="59">
-      <c r="B50" s="57" t="n">
-        <v>40</v>
-      </c>
-      <c r="C50" s="73" t="inlineStr">
-        <is>
-          <t>1/2" One Hole Strap</t>
-        </is>
-      </c>
+      <c r="B50" s="57" t="n"/>
+      <c r="C50" s="73" t="n"/>
     </row>
     <row r="51" ht="27.95" customHeight="1" s="59">
-      <c r="B51" s="57" t="n">
-        <v>120</v>
-      </c>
-      <c r="C51" s="73" t="inlineStr">
-        <is>
-          <t>#12 THHN Black Wire</t>
-        </is>
-      </c>
+      <c r="B51" s="57" t="n"/>
+      <c r="C51" s="73" t="n"/>
     </row>
     <row r="52" ht="27.95" customHeight="1" s="59">
-      <c r="B52" s="57" t="n">
-        <v>120</v>
-      </c>
-      <c r="C52" s="73" t="inlineStr">
-        <is>
-          <t>#12 THHN White Wire</t>
-        </is>
-      </c>
+      <c r="B52" s="57" t="n"/>
+      <c r="C52" s="73" t="n"/>
     </row>
     <row r="53" ht="27.95" customHeight="1" s="59">
-      <c r="B53" s="57" t="n">
-        <v>120</v>
-      </c>
-      <c r="C53" s="73" t="inlineStr">
-        <is>
-          <t>#12 THHN Green Wire</t>
-        </is>
-      </c>
+      <c r="B53" s="57" t="n"/>
+      <c r="C53" s="73" t="n"/>
     </row>
     <row r="54" ht="27.95" customHeight="1" s="59">
-      <c r="B54" s="57" t="n">
-        <v>24</v>
-      </c>
-      <c r="C54" s="73" t="inlineStr">
-        <is>
-          <t>GFCI Outlet</t>
-        </is>
-      </c>
+      <c r="B54" s="57" t="n"/>
+      <c r="C54" s="73" t="n"/>
     </row>
     <row r="55" ht="27.95" customHeight="1" s="59">
-      <c r="B55" s="57" t="n">
-        <v>8</v>
-      </c>
-      <c r="C55" s="73" t="inlineStr">
-        <is>
-          <t>Single-Pole Motor Rated 30A Switch</t>
-        </is>
-      </c>
+      <c r="B55" s="57" t="n"/>
+      <c r="C55" s="73" t="n"/>
     </row>
     <row r="56" ht="27.95" customHeight="1" s="59">
-      <c r="B56" s="57" t="n">
-        <v>8</v>
-      </c>
-      <c r="C56" s="73" t="inlineStr">
-        <is>
-          <t>4-Square Industrial Switch Cover Plate</t>
-        </is>
-      </c>
+      <c r="B56" s="57" t="n"/>
+      <c r="C56" s="73" t="n"/>
     </row>
     <row r="57" ht="27.95" customHeight="1" s="59">
-      <c r="B57" s="57" t="n">
-        <v>32</v>
-      </c>
-      <c r="C57" s="73" t="inlineStr">
-        <is>
-          <t>3/4" MC Connector</t>
-        </is>
-      </c>
+      <c r="B57" s="57" t="n"/>
+      <c r="C57" s="73" t="n"/>
     </row>
     <row r="58" ht="27.95" customHeight="1" s="59">
-      <c r="B58" s="57" t="n">
-        <v>16</v>
-      </c>
-      <c r="C58" s="73" t="inlineStr">
-        <is>
-          <t>Two Gang Stainless Steel Blank Plate</t>
-        </is>
-      </c>
+      <c r="B58" s="57" t="n"/>
+      <c r="C58" s="73" t="n"/>
     </row>
     <row r="59" ht="27.95" customHeight="1" s="59">
-      <c r="B59" s="57" t="n">
-        <v>16</v>
-      </c>
-      <c r="C59" s="73" t="inlineStr">
-        <is>
-          <t>90 Degree 1/2" Flex Connector</t>
-        </is>
-      </c>
+      <c r="B59" s="57" t="n"/>
+      <c r="C59" s="73" t="n"/>
     </row>
     <row r="60" ht="27.95" customHeight="1" s="59">
-      <c r="B60" s="57" t="n">
-        <v>8</v>
-      </c>
-      <c r="C60" s="73" t="inlineStr">
-        <is>
-          <t>4" Floor Device ***Per Print***</t>
-        </is>
-      </c>
+      <c r="B60" s="57" t="n"/>
+      <c r="C60" s="73" t="n"/>
     </row>
     <row r="61" ht="27.95" customHeight="1" s="59">
-      <c r="B61" s="57" t="n">
-        <v>8</v>
-      </c>
-      <c r="C61" s="73" t="inlineStr">
-        <is>
-          <t>6" Floor Device ***Per Print***</t>
-        </is>
-      </c>
+      <c r="B61" s="57" t="n"/>
+      <c r="C61" s="73" t="n"/>
     </row>
     <row r="62" ht="27.95" customHeight="1" s="59">
-      <c r="B62" s="57" t="n">
-        <v>80</v>
-      </c>
-      <c r="C62" s="73" t="inlineStr">
-        <is>
-          <t>Floor Device to Flex Converter ***Per Print***</t>
-        </is>
-      </c>
+      <c r="B62" s="57" t="n"/>
+      <c r="C62" s="73" t="n"/>
     </row>
     <row r="63" ht="27.95" customHeight="1" s="59">
-      <c r="B63" s="57" t="n">
-        <v>208</v>
-      </c>
-      <c r="C63" s="73" t="inlineStr">
-        <is>
-          <t>KX Straps</t>
-        </is>
-      </c>
+      <c r="B63" s="57" t="n"/>
+      <c r="C63" s="73" t="n"/>
     </row>
     <row r="64" ht="27.95" customHeight="1" s="59">
-      <c r="B64" s="57" t="n">
-        <v>8</v>
-      </c>
-      <c r="C64" s="73" t="inlineStr">
-        <is>
-          <t>Ceiling Wires</t>
-        </is>
-      </c>
+      <c r="B64" s="57" t="n"/>
+      <c r="C64" s="73" t="n"/>
     </row>
     <row r="65" ht="27.95" customHeight="1" s="59">
       <c r="B65" s="57" t="n"/>
@@ -3745,14 +3541,13 @@
   <mergeCells count="175">
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="C142:E142"/>
+    <mergeCell ref="C31:E31"/>
     <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C47:E47"/>
     <mergeCell ref="C129:E129"/>
     <mergeCell ref="C40:E40"/>
     <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C51:E51"/>
     <mergeCell ref="C95:E95"/>
-    <mergeCell ref="C51:E51"/>
     <mergeCell ref="C60:E60"/>
     <mergeCell ref="C71:E71"/>
     <mergeCell ref="C123:E123"/>
@@ -3762,9 +3557,9 @@
     <mergeCell ref="C57:E57"/>
     <mergeCell ref="C140:E140"/>
     <mergeCell ref="C155:E155"/>
+    <mergeCell ref="C49:E49"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C101:E101"/>
-    <mergeCell ref="C49:E49"/>
     <mergeCell ref="C77:E77"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="C157:E157"/>
@@ -3774,8 +3569,9 @@
     <mergeCell ref="C126:E126"/>
     <mergeCell ref="C141:E141"/>
     <mergeCell ref="C128:E128"/>
+    <mergeCell ref="C20:E20"/>
     <mergeCell ref="C113:E113"/>
-    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C25:E25"/>
     <mergeCell ref="C103:E103"/>
     <mergeCell ref="C85:E85"/>
     <mergeCell ref="C143:E143"/>
@@ -3783,8 +3579,6 @@
     <mergeCell ref="C168:E168"/>
     <mergeCell ref="C99:E99"/>
     <mergeCell ref="C94:E94"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C29:E29"/>
     <mergeCell ref="C118:E118"/>
     <mergeCell ref="C133:E133"/>
     <mergeCell ref="C84:E84"/>
@@ -3805,26 +3599,26 @@
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C159:E159"/>
     <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C48:E48"/>
     <mergeCell ref="C153:E153"/>
-    <mergeCell ref="C48:E48"/>
     <mergeCell ref="C106:E106"/>
     <mergeCell ref="C125:E125"/>
     <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C38:E38"/>
     <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C38:E38"/>
     <mergeCell ref="C161:E161"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="C170:E170"/>
-    <mergeCell ref="C13:E13"/>
     <mergeCell ref="C131:E131"/>
     <mergeCell ref="C145:E145"/>
     <mergeCell ref="C87:E87"/>
     <mergeCell ref="C154:E154"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C33:E33"/>
     <mergeCell ref="C89:E89"/>
     <mergeCell ref="C104:E104"/>
     <mergeCell ref="C116:E116"/>
-    <mergeCell ref="C33:E33"/>
     <mergeCell ref="C156:E156"/>
     <mergeCell ref="C79:E79"/>
     <mergeCell ref="C73:E73"/>
@@ -3832,18 +3626,18 @@
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C121:E121"/>
+    <mergeCell ref="C63:E63"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C63:E63"/>
     <mergeCell ref="C50:E50"/>
     <mergeCell ref="C117:E117"/>
     <mergeCell ref="C173:E173"/>
+    <mergeCell ref="C55:E55"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="C55:E55"/>
     <mergeCell ref="C163:E163"/>
     <mergeCell ref="C115:E115"/>
+    <mergeCell ref="C36:E36"/>
     <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C36:E36"/>
     <mergeCell ref="C135:E135"/>
     <mergeCell ref="C150:E150"/>
     <mergeCell ref="C144:E144"/>
@@ -3861,8 +3655,8 @@
     <mergeCell ref="C92:E92"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C14:E14"/>
     <mergeCell ref="C98:E98"/>
-    <mergeCell ref="C14:E14"/>
     <mergeCell ref="C107:E107"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="C172:E172"/>
@@ -3875,10 +3669,10 @@
     <mergeCell ref="C177:E177"/>
     <mergeCell ref="C134:E134"/>
     <mergeCell ref="C146:E146"/>
+    <mergeCell ref="C41:E41"/>
     <mergeCell ref="C124:E124"/>
     <mergeCell ref="C93:E93"/>
     <mergeCell ref="C164:E164"/>
-    <mergeCell ref="C41:E41"/>
     <mergeCell ref="C56:E56"/>
     <mergeCell ref="C148:E148"/>
     <mergeCell ref="C139:E139"/>
@@ -3901,8 +3695,8 @@
     <mergeCell ref="C66:E66"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C102:E102"/>
+    <mergeCell ref="C53:E53"/>
     <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C53:E53"/>
     <mergeCell ref="C111:E111"/>
     <mergeCell ref="C179:E179"/>
     <mergeCell ref="C86:E86"/>
@@ -3915,9 +3709,11 @@
     <mergeCell ref="C58:E58"/>
     <mergeCell ref="C45:E45"/>
     <mergeCell ref="C97:E97"/>
+    <mergeCell ref="C29:E29"/>
     <mergeCell ref="C100:E100"/>
     <mergeCell ref="C152:E152"/>
     <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C47:E47"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
